--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="H2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="I2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="J2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N2">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O2">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P2">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q2">
-        <v>1551.785659143608</v>
+        <v>331.5522463955987</v>
       </c>
       <c r="R2">
-        <v>13966.07093229247</v>
+        <v>2983.970217560388</v>
       </c>
       <c r="S2">
-        <v>0.3278435447156943</v>
+        <v>0.06732597353046234</v>
       </c>
       <c r="T2">
-        <v>0.3278435447156943</v>
+        <v>0.06732597353046232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="H3">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="I3">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="J3">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,30 +620,30 @@
         <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q3">
-        <v>382.7071494164103</v>
+        <v>39.34025524854201</v>
       </c>
       <c r="R3">
-        <v>3444.364344747692</v>
+        <v>354.062297236878</v>
       </c>
       <c r="S3">
-        <v>0.08085399405092938</v>
+        <v>0.007988547845291061</v>
       </c>
       <c r="T3">
-        <v>0.08085399405092938</v>
+        <v>0.00798854784529106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.0512696666667</v>
+        <v>24.576554</v>
       </c>
       <c r="H4">
-        <v>351.153809</v>
+        <v>73.729662</v>
       </c>
       <c r="I4">
-        <v>0.200091095020045</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="J4">
-        <v>0.200091095020045</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N4">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O4">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P4">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q4">
-        <v>759.726845215354</v>
+        <v>0.6891921116373333</v>
       </c>
       <c r="R4">
-        <v>6837.541606938186</v>
+        <v>6.202729004736</v>
       </c>
       <c r="S4">
-        <v>0.1605064078814401</v>
+        <v>0.0001399493756110304</v>
       </c>
       <c r="T4">
-        <v>0.1605064078814401</v>
+        <v>0.0001399493756110304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>117.0512696666667</v>
+        <v>24.576554</v>
       </c>
       <c r="H5">
-        <v>351.153809</v>
+        <v>73.729662</v>
       </c>
       <c r="I5">
-        <v>0.200091095020045</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="J5">
-        <v>0.200091095020045</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.600723</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>4.802168999999999</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="P5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="Q5">
-        <v>187.3666595346356</v>
+        <v>0.4097239239186667</v>
       </c>
       <c r="R5">
-        <v>1686.299935811721</v>
+        <v>3.687515315268</v>
       </c>
       <c r="S5">
-        <v>0.03958468713860495</v>
+        <v>8.319974410196458E-05</v>
       </c>
       <c r="T5">
-        <v>0.03958468713860495</v>
+        <v>8.319974410196458E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.695868</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="H6">
-        <v>173.087604</v>
+        <v>351.153809</v>
       </c>
       <c r="I6">
-        <v>0.09862711817759588</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="J6">
-        <v>0.09862711817759588</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N6">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O6">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P6">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q6">
-        <v>374.477781423708</v>
+        <v>1579.090844120796</v>
       </c>
       <c r="R6">
-        <v>3370.300032813372</v>
+        <v>14211.81759708717</v>
       </c>
       <c r="S6">
-        <v>0.07911538720300536</v>
+        <v>0.3206548274947337</v>
       </c>
       <c r="T6">
-        <v>0.07911538720300534</v>
+        <v>0.3206548274947337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.695868</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="H7">
-        <v>173.087604</v>
+        <v>351.153809</v>
       </c>
       <c r="I7">
-        <v>0.09862711817759588</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="J7">
-        <v>0.09862711817759588</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,30 +868,30 @@
         <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q7">
-        <v>92.35510291256398</v>
+        <v>187.3666595346357</v>
       </c>
       <c r="R7">
-        <v>831.1959262130758</v>
+        <v>1686.299935811721</v>
       </c>
       <c r="S7">
-        <v>0.01951173097459053</v>
+        <v>0.0380472245248147</v>
       </c>
       <c r="T7">
-        <v>0.01951173097459053</v>
+        <v>0.0380472245248147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>171.15883</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="H8">
-        <v>513.4764899999999</v>
+        <v>351.153809</v>
       </c>
       <c r="I8">
-        <v>0.2925842480357352</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="J8">
-        <v>0.2925842480357352</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N8">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O8">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P8">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q8">
-        <v>1110.914544685897</v>
+        <v>3.282429738172444</v>
       </c>
       <c r="R8">
-        <v>9998.230902173069</v>
+        <v>29.541867643552</v>
       </c>
       <c r="S8">
-        <v>0.2347013326615238</v>
+        <v>0.0006665398291529537</v>
       </c>
       <c r="T8">
-        <v>0.2347013326615238</v>
+        <v>0.0006665398291529537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="H9">
+        <v>351.153809</v>
+      </c>
+      <c r="I9">
+        <v>0.359764849016532</v>
+      </c>
+      <c r="J9">
+        <v>0.359764849016532</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q9">
+        <v>1.951400733702889</v>
+      </c>
+      <c r="R9">
+        <v>17.562606603326</v>
+      </c>
+      <c r="S9">
+        <v>0.000396257167830637</v>
+      </c>
+      <c r="T9">
+        <v>0.0003962571678306371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>55.68784966666667</v>
+      </c>
+      <c r="H10">
+        <v>167.063549</v>
+      </c>
+      <c r="I10">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="J10">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.471774</v>
+      </c>
+      <c r="O10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q10">
+        <v>751.262022085103</v>
+      </c>
+      <c r="R10">
+        <v>6761.358198765927</v>
+      </c>
+      <c r="S10">
+        <v>0.1525534740397847</v>
+      </c>
+      <c r="T10">
+        <v>0.1525534740397847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>171.15883</v>
-      </c>
-      <c r="H9">
-        <v>513.4764899999999</v>
-      </c>
-      <c r="I9">
-        <v>0.2925842480357352</v>
-      </c>
-      <c r="J9">
-        <v>0.2925842480357352</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>55.68784966666667</v>
+      </c>
+      <c r="H11">
+        <v>167.063549</v>
+      </c>
+      <c r="I11">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="J11">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.600723</v>
       </c>
-      <c r="N9">
-        <v>4.802168999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="P9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="Q9">
-        <v>273.9778758340899</v>
-      </c>
-      <c r="R9">
-        <v>2465.800882506809</v>
-      </c>
-      <c r="S9">
-        <v>0.05788291537421145</v>
-      </c>
-      <c r="T9">
-        <v>0.05788291537421145</v>
+      <c r="N11">
+        <v>4.802169</v>
+      </c>
+      <c r="O11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q11">
+        <v>89.14082178197569</v>
+      </c>
+      <c r="R11">
+        <v>802.2673960377812</v>
+      </c>
+      <c r="S11">
+        <v>0.01810119724122196</v>
+      </c>
+      <c r="T11">
+        <v>0.01810119724122196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>55.68784966666667</v>
+      </c>
+      <c r="H12">
+        <v>167.063549</v>
+      </c>
+      <c r="I12">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="J12">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q12">
+        <v>1.561635805585778</v>
+      </c>
+      <c r="R12">
+        <v>14.054722250272</v>
+      </c>
+      <c r="S12">
+        <v>0.0003171103560723333</v>
+      </c>
+      <c r="T12">
+        <v>0.0003171103560723334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>55.68784966666667</v>
+      </c>
+      <c r="H13">
+        <v>167.063549</v>
+      </c>
+      <c r="I13">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="J13">
+        <v>0.1711603033819035</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.050014</v>
+      </c>
+      <c r="O13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q13">
+        <v>0.9283907044095556</v>
+      </c>
+      <c r="R13">
+        <v>8.355516339686002</v>
+      </c>
+      <c r="S13">
+        <v>0.000188521744824573</v>
+      </c>
+      <c r="T13">
+        <v>0.0001885217448245731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>128.0392633333333</v>
+      </c>
+      <c r="H14">
+        <v>384.11779</v>
+      </c>
+      <c r="I14">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="J14">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.471774</v>
+      </c>
+      <c r="O14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q14">
+        <v>1727.325376251051</v>
+      </c>
+      <c r="R14">
+        <v>15545.92838625946</v>
+      </c>
+      <c r="S14">
+        <v>0.3507557672259461</v>
+      </c>
+      <c r="T14">
+        <v>0.3507557672259461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>128.0392633333333</v>
+      </c>
+      <c r="H15">
+        <v>384.11779</v>
+      </c>
+      <c r="I15">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="J15">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.600723</v>
+      </c>
+      <c r="N15">
+        <v>4.802169</v>
+      </c>
+      <c r="O15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q15">
+        <v>204.9553937207234</v>
+      </c>
+      <c r="R15">
+        <v>1844.59854348651</v>
+      </c>
+      <c r="S15">
+        <v>0.04161884457903067</v>
+      </c>
+      <c r="T15">
+        <v>0.04161884457903067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>128.0392633333333</v>
+      </c>
+      <c r="H16">
+        <v>384.11779</v>
+      </c>
+      <c r="I16">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="J16">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q16">
+        <v>3.590562381902222</v>
+      </c>
+      <c r="R16">
+        <v>32.31506143712</v>
+      </c>
+      <c r="S16">
+        <v>0.0007291101493397446</v>
+      </c>
+      <c r="T16">
+        <v>0.0007291101493397446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.0392633333333</v>
+      </c>
+      <c r="H17">
+        <v>384.11779</v>
+      </c>
+      <c r="I17">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="J17">
+        <v>0.3935371771060981</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.050014</v>
+      </c>
+      <c r="O17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q17">
+        <v>2.134585238784445</v>
+      </c>
+      <c r="R17">
+        <v>19.21126714906</v>
+      </c>
+      <c r="S17">
+        <v>0.000433455151781547</v>
+      </c>
+      <c r="T17">
+        <v>0.0004334551517815471</v>
       </c>
     </row>
   </sheetData>
